--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2525455.21450333</v>
+        <v>-2528023.414782696</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1370,19 +1370,19 @@
         <v>355.8127254646764</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3517755722034</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7619254218788</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>355.0092538734576</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9549295429073</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0006094546493</v>
+        <v>86.37119443510363</v>
       </c>
       <c r="H11" t="n">
         <v>267.6866481885163</v>
@@ -1424,19 +1424,19 @@
         <v>176.996853940816</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0740557600978</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8311422713308</v>
+        <v>300.8311422713307</v>
       </c>
       <c r="W11" t="n">
-        <v>222.209398346242</v>
+        <v>322.3198525186089</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8099844796649</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3168224572495</v>
+        <v>359.3168224572494</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3257048998237</v>
+        <v>7.76051193623023</v>
       </c>
       <c r="D13" t="n">
         <v>121.6943568194082</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.512846447765</v>
       </c>
       <c r="F13" t="n">
-        <v>92.66468741769351</v>
+        <v>118.4999318241271</v>
       </c>
       <c r="G13" t="n">
         <v>139.1046920602241</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8338987155167</v>
       </c>
       <c r="I13" t="n">
         <v>69.43130421103396</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.0110364712432</v>
       </c>
       <c r="S13" t="n">
         <v>162.8479091326378</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6278330773651</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2907220068088</v>
+        <v>259.2907220068087</v>
       </c>
       <c r="V13" t="n">
         <v>225.2165271250239</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6018821377869</v>
+        <v>259.6018821377868</v>
       </c>
       <c r="X13" t="n">
         <v>198.788539190233</v>
@@ -1607,13 +1607,13 @@
         <v>355.8127254646764</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3517755722035</v>
+        <v>338.3517755722034</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7619254218788</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>246.0101859457189</v>
       </c>
       <c r="F14" t="n">
         <v>379.9549295429073</v>
@@ -1622,10 +1622,10 @@
         <v>384.0006094546493</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6866481885163</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412179</v>
+        <v>14.65581357412182</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26664558937169</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>176.996853940816</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0740557600978</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8311422713307</v>
       </c>
       <c r="W14" t="n">
-        <v>300.5759041009436</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>342.8099844796649</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3168224572495</v>
+        <v>359.3168224572494</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9108639831332</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3257048998237</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>121.6943568194082</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>73.75021736685453</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.4999318241271</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1046920602241</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>117.8338987155167</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43130421103396</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>162.8479091326378</v>
       </c>
       <c r="T16" t="n">
-        <v>21.96802553619929</v>
+        <v>192.6278330773651</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2907220068088</v>
+        <v>259.2907220068087</v>
       </c>
       <c r="V16" t="n">
         <v>225.2165271250239</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6018821377869</v>
+        <v>259.6018821377868</v>
       </c>
       <c r="X16" t="n">
         <v>198.788539190233</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.8375888460839</v>
       </c>
       <c r="C17" t="n">
-        <v>267.1756840497784</v>
+        <v>291.3766389536109</v>
       </c>
       <c r="D17" t="n">
         <v>280.7867888032863</v>
@@ -1856,7 +1856,7 @@
         <v>332.9797929243148</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0254728360568</v>
+        <v>3.986929086141004</v>
       </c>
       <c r="H17" t="n">
         <v>220.7115115699238</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29150897077916</v>
+        <v>35.29150897077915</v>
       </c>
       <c r="T17" t="n">
         <v>130.0217173222235</v>
@@ -2050,10 +2050,10 @@
         <v>15.03589985265066</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8727725140452</v>
+        <v>178.287980495851</v>
       </c>
       <c r="T19" t="n">
-        <v>208.0679044405781</v>
+        <v>145.6526964587725</v>
       </c>
       <c r="U19" t="n">
         <v>212.3155853882162</v>
@@ -2081,19 +2081,19 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3766389536109</v>
+        <v>291.3766389536108</v>
       </c>
       <c r="D20" t="n">
         <v>280.7867888032863</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>308.0341172548651</v>
       </c>
       <c r="F20" t="n">
-        <v>307.9753664292642</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0254728360568</v>
+        <v>3.986929086140962</v>
       </c>
       <c r="H20" t="n">
         <v>220.7115115699238</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29150897077916</v>
+        <v>35.29150897077915</v>
       </c>
       <c r="T20" t="n">
         <v>130.0217173222235</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35056828123116</v>
+        <v>93.35056828123115</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71922020081568</v>
+        <v>74.71922020081567</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5377098291725</v>
+        <v>72.53770982917248</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52479520553457</v>
+        <v>71.52479520553456</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12955544163155</v>
+        <v>92.12955544163154</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85876209692411</v>
+        <v>70.8587620969241</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45616759244142</v>
+        <v>22.45616759244141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03589985265066</v>
+        <v>15.03589985265064</v>
       </c>
       <c r="S22" t="n">
         <v>115.8727725140452</v>
       </c>
       <c r="T22" t="n">
-        <v>208.0679044405781</v>
+        <v>145.6526964587725</v>
       </c>
       <c r="U22" t="n">
         <v>212.3155853882162</v>
@@ -2299,7 +2299,7 @@
         <v>178.2413905064313</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6267455191943</v>
+        <v>275.0419535010005</v>
       </c>
       <c r="X22" t="n">
         <v>151.8134025716405</v>
@@ -2318,7 +2318,7 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3766389536109</v>
+        <v>291.3766389536108</v>
       </c>
       <c r="D23" t="n">
         <v>280.7867888032863</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29150897077916</v>
+        <v>35.29150897077915</v>
       </c>
       <c r="T23" t="n">
         <v>130.0217173222235</v>
@@ -2476,25 +2476,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35056828123116</v>
+        <v>93.35056828123115</v>
       </c>
       <c r="D25" t="n">
-        <v>137.134428182621</v>
+        <v>74.71922020081567</v>
       </c>
       <c r="E25" t="n">
-        <v>72.5377098291725</v>
+        <v>72.53770982917248</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52479520553457</v>
+        <v>71.52479520553456</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12955544163155</v>
+        <v>92.12955544163154</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85876209692411</v>
+        <v>133.2739700787304</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45616759244142</v>
+        <v>22.45616759244141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03589985265066</v>
+        <v>15.03589985265064</v>
       </c>
       <c r="S25" t="n">
         <v>115.8727725140452</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
         <v>172.5738126575766</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3755,7 +3755,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3797,7 +3797,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1813.046641740801</v>
+        <v>1139.314829203297</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.046641740801</v>
+        <v>797.5453589283443</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.973989799509</v>
+        <v>797.5453589283443</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.378783866724</v>
+        <v>438.9501529955589</v>
       </c>
       <c r="F11" t="n">
-        <v>739.585925742575</v>
+        <v>438.9501529955589</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7065222530302</v>
+        <v>351.70652225303</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31596852725613</v>
+        <v>81.31596852725599</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508199801725</v>
+        <v>3242.508199801726</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.723498851406</v>
+        <v>3063.723498851407</v>
       </c>
       <c r="U11" t="n">
-        <v>3063.723498851406</v>
+        <v>2837.386068790702</v>
       </c>
       <c r="V11" t="n">
-        <v>2759.853658173294</v>
+        <v>2533.516228112589</v>
       </c>
       <c r="W11" t="n">
-        <v>2535.399720449817</v>
+        <v>2207.940619507934</v>
       </c>
       <c r="X11" t="n">
-        <v>2535.399720449817</v>
+        <v>1861.667907912313</v>
       </c>
       <c r="Y11" t="n">
-        <v>2172.453435139464</v>
+        <v>1498.72162260196</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>635.4219602788336</v>
+        <v>767.3581184668353</v>
       </c>
       <c r="C13" t="n">
-        <v>493.6788240163853</v>
+        <v>759.5192175211482</v>
       </c>
       <c r="D13" t="n">
-        <v>370.7552312695084</v>
+        <v>636.5956247742712</v>
       </c>
       <c r="E13" t="n">
-        <v>370.7552312695084</v>
+        <v>515.8755778573368</v>
       </c>
       <c r="F13" t="n">
-        <v>277.1545369082016</v>
+        <v>396.1786770248852</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6447469483793</v>
+        <v>255.6688870650628</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6447469483793</v>
+        <v>136.6447469483794</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>138.2866539159351</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9257419016275</v>
+        <v>368.9257419016274</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1374453869397</v>
+        <v>712.1374453869396</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946396023305</v>
@@ -5221,28 +5221,28 @@
         <v>2140.509788383021</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.509788383021</v>
+        <v>2077.872377806008</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.016950875306</v>
+        <v>1913.379540298293</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.443382110291</v>
+        <v>1913.379540298293</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.533561901394</v>
+        <v>1651.469720089395</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.042120360965</v>
+        <v>1423.978278548967</v>
       </c>
       <c r="W13" t="n">
-        <v>1029.817996989464</v>
+        <v>1161.754155177465</v>
       </c>
       <c r="X13" t="n">
-        <v>829.021492756905</v>
+        <v>960.9576509449067</v>
       </c>
       <c r="Y13" t="n">
-        <v>635.4219602788336</v>
+        <v>767.3581184668353</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1465.148254141677</v>
+        <v>1774.325489676103</v>
       </c>
       <c r="C14" t="n">
-        <v>1123.378783866724</v>
+        <v>1432.55601940115</v>
       </c>
       <c r="D14" t="n">
-        <v>1123.378783866724</v>
+        <v>1101.483367459858</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.378783866724</v>
+        <v>852.9882301409497</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5859257425748</v>
+        <v>469.1953720168008</v>
       </c>
       <c r="G14" t="n">
-        <v>351.70652225303</v>
+        <v>81.31596852725596</v>
       </c>
       <c r="H14" t="n">
         <v>81.31596852725596</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.508199801725</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.723498851406</v>
+        <v>3146.821120658852</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.386068790701</v>
+        <v>3146.821120658852</v>
       </c>
       <c r="V14" t="n">
-        <v>2837.386068790701</v>
+        <v>2842.95127998074</v>
       </c>
       <c r="W14" t="n">
-        <v>2533.774044446314</v>
+        <v>2842.95127998074</v>
       </c>
       <c r="X14" t="n">
-        <v>2187.501332850693</v>
+        <v>2496.678568385119</v>
       </c>
       <c r="Y14" t="n">
-        <v>1824.55504754034</v>
+        <v>2133.732283074766</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064539</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>590.7127755180143</v>
+        <v>572.7845497018201</v>
       </c>
       <c r="C16" t="n">
-        <v>448.9696392555661</v>
+        <v>572.7845497018201</v>
       </c>
       <c r="D16" t="n">
-        <v>326.0460465086892</v>
+        <v>449.8609569549432</v>
       </c>
       <c r="E16" t="n">
-        <v>326.0460465086892</v>
+        <v>375.3657878975144</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0460465086892</v>
+        <v>255.6688870650628</v>
       </c>
       <c r="G16" t="n">
-        <v>185.5362565488669</v>
+        <v>255.6688870650628</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>136.6447469483793</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2866539159349</v>
+        <v>138.286653915935</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9257419016274</v>
+        <v>368.9257419016275</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1374453869396</v>
+        <v>712.1374453869397</v>
       </c>
       <c r="M16" t="n">
         <v>1082.946396023305</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.006677765985</v>
+        <v>1451.006677765986</v>
       </c>
       <c r="O16" t="n">
         <v>1776.988181723215</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.247587193691</v>
+        <v>2036.24758719369</v>
       </c>
       <c r="Q16" t="n">
         <v>2140.509788383021</v>
@@ -5464,22 +5464,22 @@
         <v>1913.379540298293</v>
       </c>
       <c r="T16" t="n">
-        <v>1891.189615514253</v>
+        <v>1718.805971533278</v>
       </c>
       <c r="U16" t="n">
-        <v>1629.279795305355</v>
+        <v>1456.89615132438</v>
       </c>
       <c r="V16" t="n">
-        <v>1401.788353764927</v>
+        <v>1229.404709783952</v>
       </c>
       <c r="W16" t="n">
-        <v>1139.564230393425</v>
+        <v>967.1805864124501</v>
       </c>
       <c r="X16" t="n">
-        <v>938.7677261608667</v>
+        <v>766.3840821798915</v>
       </c>
       <c r="Y16" t="n">
-        <v>745.1681936827953</v>
+        <v>572.7845497018201</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1830.869053238472</v>
+        <v>1518.911892787882</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.994624905362</v>
+        <v>1224.592055461002</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.371605912144</v>
+        <v>940.9690364677838</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2260329274314</v>
+        <v>629.8234634830715</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8828077513559</v>
+        <v>293.4802383069959</v>
       </c>
       <c r="G17" t="n">
         <v>289.4530372098843</v>
@@ -5513,28 +5513,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986308</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5698,7 +5698,7 @@
         <v>1912.106770459553</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.063565899911</v>
+        <v>1732.017901271824</v>
       </c>
       <c r="T19" t="n">
         <v>1584.893965454883</v>
@@ -5732,13 +5732,13 @@
         <v>1224.592055461002</v>
       </c>
       <c r="D20" t="n">
-        <v>940.9690364677842</v>
+        <v>940.969036467784</v>
       </c>
       <c r="E20" t="n">
-        <v>940.9690364677842</v>
+        <v>629.8234634830715</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8828077513558</v>
+        <v>293.4802383069963</v>
       </c>
       <c r="G20" t="n">
         <v>289.4530372098842</v>
@@ -5750,10 +5750,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5792,7 +5792,7 @@
         <v>2445.188784248299</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.365705600752</v>
+        <v>2146.365705600751</v>
       </c>
       <c r="Y20" t="n">
         <v>1830.869053238472</v>
@@ -5832,10 +5832,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1149231470835</v>
+        <v>569.1149231470833</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8214198327086</v>
+        <v>474.8214198327085</v>
       </c>
       <c r="D22" t="n">
         <v>399.3474600339048</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0770460650437</v>
+        <v>326.0770460650436</v>
       </c>
       <c r="F22" t="n">
         <v>253.8297781806653</v>
@@ -5938,22 +5938,22 @@
         <v>1795.063565899911</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.893965454883</v>
+        <v>1647.939630082969</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.433778194058</v>
+        <v>1433.479442822145</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.391969601703</v>
+        <v>1253.43763422979</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6174791782747</v>
+        <v>975.6174791782744</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2706078937894</v>
+        <v>822.270607893789</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1207083637912</v>
+        <v>676.120708363791</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.179820792331</v>
+        <v>1862.17982079233</v>
       </c>
       <c r="C23" t="n">
         <v>1567.859983465451</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236964472233</v>
+        <v>1284.236964472232</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0913914875204</v>
+        <v>973.09139148752</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7481663114448</v>
+        <v>636.7481663114449</v>
       </c>
       <c r="G23" t="n">
         <v>296.3183957699732</v>
@@ -5999,7 +5999,7 @@
         <v>1580.642097561478</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42091462026</v>
+        <v>2463.82348406462</v>
       </c>
       <c r="O23" t="n">
         <v>2966.795954943957</v>
@@ -6014,25 +6014,25 @@
         <v>3668.87374961362</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.225760754247</v>
+        <v>3633.225760754246</v>
       </c>
       <c r="T23" t="n">
         <v>3501.890692752001</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.00289563937</v>
+        <v>3323.002895639369</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.582687909331</v>
+        <v>3066.58268790933</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.456712252749</v>
+        <v>2788.456712252748</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.633633605201</v>
+        <v>2489.6336336052</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136981242921</v>
+        <v>2174.13698124292</v>
       </c>
     </row>
     <row r="24">
@@ -6069,10 +6069,10 @@
         <v>167.0547444828897</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189434632368</v>
+        <v>405.3189434632369</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0171037759022</v>
+        <v>772.0171037759023</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293428998218</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0259463352586</v>
+        <v>639.0259463352595</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7324430208837</v>
+        <v>544.7324430208846</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2128185939938</v>
+        <v>469.2584832220809</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9424046251327</v>
+        <v>395.9880692532198</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6951367407543</v>
+        <v>323.7408013688415</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6349797290053</v>
+        <v>230.6806443570924</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06047256039506</v>
+        <v>96.06047256039503</v>
       </c>
       <c r="I25" t="n">
         <v>73.3774749922724</v>
@@ -6184,13 +6184,13 @@
         <v>1260.302992789879</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52850236645</v>
+        <v>1045.528502366451</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1816310819645</v>
+        <v>892.1816310819652</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0317315519663</v>
+        <v>746.0317315519671</v>
       </c>
     </row>
     <row r="26">
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>393.2994530991692</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>727.1188267890157</v>
       </c>
       <c r="L26" t="n">
-        <v>1184.800837351328</v>
+        <v>1178.153040037424</v>
       </c>
       <c r="M26" t="n">
-        <v>1718.332742023253</v>
+        <v>1711.684944709349</v>
       </c>
       <c r="N26" t="n">
-        <v>2265.111559082035</v>
+        <v>2258.463761768131</v>
       </c>
       <c r="O26" t="n">
-        <v>3145.07620941149</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768668</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6300,10 +6300,10 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
         <v>413.0883853676538</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467804</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6461,28 +6461,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>1002.369923216575</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1453.404136464984</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1986.936041136909</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N29" t="n">
-        <v>2533.714858195691</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O29" t="n">
-        <v>3036.687329075028</v>
+        <v>3083.181225561918</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3477.955591919096</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3936.433794428084</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834459</v>
@@ -6491,7 +6491,7 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
@@ -6503,10 +6503,10 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6540,13 +6540,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6601,16 +6601,16 @@
         <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,13 +6619,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6658,7 +6658,7 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038485</v>
@@ -6686,40 +6686,40 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398493</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668979</v>
       </c>
       <c r="I32" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910142</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.315497911347</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.09431497013</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O32" t="n">
-        <v>2959.066785849467</v>
+        <v>3182.560655874485</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3577.335022231663</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834459</v>
@@ -6728,7 +6728,7 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6737,13 +6737,13 @@
         <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6841,13 +6841,13 @@
         <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,13 +6856,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
         <v>1711.594658697161</v>
@@ -6923,7 +6923,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467787</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6935,28 +6935,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>1588.411539465894</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N35" t="n">
-        <v>2475.30339983534</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521973</v>
+        <v>3518.923563871313</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
@@ -6965,7 +6965,7 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
         <v>3629.895850863831</v>
@@ -7014,7 +7014,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K36" t="n">
         <v>413.0883853676538</v>
@@ -7160,7 +7160,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398486</v>
@@ -7175,25 +7175,25 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M38" t="n">
-        <v>1909.315497911347</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N38" t="n">
-        <v>2456.09431497013</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O38" t="n">
-        <v>3336.058965299585</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P38" t="n">
-        <v>3730.833331656763</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
-        <v>3979.119693412445</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
@@ -7208,7 +7208,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
         <v>1711.594658697161</v>
@@ -7397,7 +7397,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7418,13 +7418,13 @@
         <v>1375.783593239423</v>
       </c>
       <c r="M41" t="n">
-        <v>2305.516762226675</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N41" t="n">
-        <v>2852.295579285458</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164795</v>
+        <v>3336.058965299585</v>
       </c>
       <c r="P41" t="n">
         <v>3750.042416521973</v>
@@ -7439,19 +7439,19 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,52 +7567,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960323</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973152</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498218</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E44" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7646,25 +7646,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455611</v>
+        <v>1045.699547878784</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.87963479397</v>
+        <v>1496.733761127192</v>
       </c>
       <c r="M44" t="n">
-        <v>1588.411539465894</v>
+        <v>2030.265665799117</v>
       </c>
       <c r="N44" t="n">
-        <v>2468.655602521437</v>
+        <v>2577.044482857899</v>
       </c>
       <c r="O44" t="n">
-        <v>2971.628073400774</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P44" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q44" t="n">
         <v>3933.269522603402</v>
@@ -7682,7 +7682,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7725,13 +7725,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D46" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I46" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
         <v>786.3326864982171</v>
@@ -7828,28 +7828,28 @@
         <v>2313.972430572252</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>164.4450187886092</v>
+        <v>164.4450187886095</v>
       </c>
       <c r="K8" t="n">
-        <v>195.209426659291</v>
+        <v>195.2094266592914</v>
       </c>
       <c r="L8" t="n">
-        <v>204.9000484419195</v>
+        <v>204.9000484419199</v>
       </c>
       <c r="M8" t="n">
-        <v>196.0014531526782</v>
+        <v>196.0014531526787</v>
       </c>
       <c r="N8" t="n">
-        <v>194.5125490740273</v>
+        <v>194.5125490740279</v>
       </c>
       <c r="O8" t="n">
-        <v>197.1426452201058</v>
+        <v>197.1426452201063</v>
       </c>
       <c r="P8" t="n">
-        <v>203.1061824561912</v>
+        <v>203.1061824561916</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.183624456723</v>
+        <v>201.1836244567233</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>116.9502528485206</v>
+        <v>116.9502528485208</v>
       </c>
       <c r="K9" t="n">
-        <v>120.9423422814161</v>
+        <v>120.9423422814164</v>
       </c>
       <c r="L9" t="n">
-        <v>115.83145879815</v>
+        <v>115.8314587981504</v>
       </c>
       <c r="M9" t="n">
-        <v>115.6174569072884</v>
+        <v>115.6174569072889</v>
       </c>
       <c r="N9" t="n">
-        <v>104.123320177561</v>
+        <v>104.1233201775614</v>
       </c>
       <c r="O9" t="n">
-        <v>117.6967333951446</v>
+        <v>117.696733395145</v>
       </c>
       <c r="P9" t="n">
-        <v>113.9903546175965</v>
+        <v>113.9903546175968</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.6229640213392</v>
+        <v>126.6229640213394</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>121.8405463218792</v>
+        <v>121.8405463218794</v>
       </c>
       <c r="M10" t="n">
-        <v>125.172577827437</v>
+        <v>125.1725778274372</v>
       </c>
       <c r="N10" t="n">
-        <v>114.2593588466756</v>
+        <v>114.2593588466758</v>
       </c>
       <c r="O10" t="n">
-        <v>126.0552829419911</v>
+        <v>126.0552829419913</v>
       </c>
       <c r="P10" t="n">
-        <v>127.1165875773784</v>
+        <v>127.1165875773786</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>339.8005751963226</v>
       </c>
       <c r="O23" t="n">
-        <v>339.8005751963231</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5185911550046</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>131.2335379367253</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>233.4533865158194</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>62.52018570663827</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>122.1718867553238</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>174.4519134245563</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10595,19 +10595,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>343.5485285966295</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>167.736966642836</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>65.51711806374232</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>19.40311602546478</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,16 +11066,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>400.20329728821</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>19.40311602546484</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,16 +11306,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>336.8335818149096</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707176</v>
+        <v>15.28796821707175</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3517755722035</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7619254218788</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9549295429073</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>297.6294150195457</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0740557600978</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>100.1104541723669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8099844796649</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>152.9108639831332</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>132.5651929635935</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.512846447765</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.8352444064335</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8338987155167</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.0110364712432</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6278330773651</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7619254218788</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0092538734576</v>
+        <v>108.9990679277387</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6866481885163</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26664558937171</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0740557600978</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8311422713308</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>21.74394841766528</v>
+        <v>322.3198525186089</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9108639831332</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3257048998237</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.512846447765</v>
+        <v>45.76262908091051</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4999318241271</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1046920602241</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43130421103396</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>170.6598075411658</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8375888460839</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>24.20095490383252</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>333.0385437499158</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23975,13 +23975,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0341172548651</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>25.00442649505063</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>333.0385437499158</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61445.72540377788</v>
+        <v>61445.72540377787</v>
       </c>
       <c r="C2" t="n">
-        <v>61445.8135764873</v>
+        <v>61445.81357648731</v>
       </c>
       <c r="D2" t="n">
-        <v>61446.8931062519</v>
+        <v>61446.89310625193</v>
       </c>
       <c r="E2" t="n">
+        <v>54715.62850597144</v>
+      </c>
+      <c r="F2" t="n">
         <v>54715.62850597141</v>
       </c>
-      <c r="F2" t="n">
-        <v>54715.62850597142</v>
-      </c>
       <c r="G2" t="n">
+        <v>59589.89263363428</v>
+      </c>
+      <c r="H2" t="n">
         <v>59589.89263363431</v>
-      </c>
-      <c r="H2" t="n">
-        <v>59589.89263363429</v>
       </c>
       <c r="I2" t="n">
         <v>61578.13273982128</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.13273982117</v>
       </c>
       <c r="K2" t="n">
         <v>61578.13273982119</v>
       </c>
       <c r="L2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="M2" t="n">
+        <v>61578.13273982116</v>
+      </c>
+      <c r="N2" t="n">
         <v>61578.13273982115</v>
       </c>
-      <c r="M2" t="n">
-        <v>61578.13273982114</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61578.13273982116</v>
-      </c>
       <c r="O2" t="n">
-        <v>61578.13273982116</v>
+        <v>61578.13273982117</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982121</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.85015936308</v>
+        <v>38521.85015936241</v>
       </c>
       <c r="E3" t="n">
-        <v>1106215.961015503</v>
+        <v>1106215.961015504</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.53767071777</v>
+        <v>22820.53767071774</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.34822049027</v>
+        <v>25410.34822049024</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
-        <v>5.115907697472721e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>422862.8573343057</v>
+        <v>422862.8573343059</v>
       </c>
       <c r="E4" t="n">
         <v>38195.30988554742</v>
       </c>
       <c r="F4" t="n">
-        <v>38195.30988554743</v>
+        <v>38195.30988554742</v>
       </c>
       <c r="G4" t="n">
         <v>75223.10714400178</v>
       </c>
       <c r="H4" t="n">
-        <v>75223.10714400178</v>
+        <v>75223.1071440018</v>
       </c>
       <c r="I4" t="n">
-        <v>86759.13279157184</v>
+        <v>86759.13279157183</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409837</v>
       </c>
       <c r="K4" t="n">
         <v>82806.76150409842</v>
       </c>
       <c r="L4" t="n">
+        <v>82806.76150409841</v>
+      </c>
+      <c r="M4" t="n">
+        <v>82806.76150409838</v>
+      </c>
+      <c r="N4" t="n">
         <v>82806.76150409842</v>
       </c>
-      <c r="M4" t="n">
-        <v>82806.76150409839</v>
-      </c>
-      <c r="N4" t="n">
-        <v>82806.76150409844</v>
-      </c>
       <c r="O4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409838</v>
       </c>
       <c r="P4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409838</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34688.2630805892</v>
+        <v>34688.26308058917</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.57187911056</v>
+        <v>76569.57187911059</v>
       </c>
       <c r="F5" t="n">
         <v>76569.57187911056</v>
@@ -26506,7 +26506,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-408455.7543154702</v>
+        <v>-408460.1678933384</v>
       </c>
       <c r="C6" t="n">
-        <v>-410848.3444855664</v>
+        <v>-410852.7551243442</v>
       </c>
       <c r="D6" t="n">
-        <v>-434626.0774680061</v>
+        <v>-434630.4521224579</v>
       </c>
       <c r="E6" t="n">
-        <v>-1166265.214274189</v>
+        <v>-1166493.964415319</v>
       </c>
       <c r="F6" t="n">
-        <v>-60049.25325868657</v>
+        <v>-60278.0033998149</v>
       </c>
       <c r="G6" t="n">
-        <v>-133732.0484447405</v>
+        <v>-133798.3231149468</v>
       </c>
       <c r="H6" t="n">
-        <v>-96151.93914986652</v>
+        <v>-96218.21382007275</v>
       </c>
       <c r="I6" t="n">
-        <v>-133737.934867635</v>
+        <v>-133737.9348676349</v>
       </c>
       <c r="J6" t="n">
         <v>-136016.9186595736</v>
@@ -26549,7 +26549,7 @@
         <v>-110606.5704390834</v>
       </c>
       <c r="L6" t="n">
-        <v>-148186.6797339574</v>
+        <v>-148186.6797339573</v>
       </c>
       <c r="M6" t="n">
         <v>-317795.1387311564</v>
@@ -26558,7 +26558,7 @@
         <v>-110606.5704390834</v>
       </c>
       <c r="O6" t="n">
-        <v>-110606.5704390834</v>
+        <v>-110606.5704390832</v>
       </c>
       <c r="P6" t="n">
         <v>-110606.5704390833</v>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="G2" t="n">
         <v>73.89625281739667</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859261</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859256</v>
@@ -26741,7 +26741,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.65426975179797</v>
+        <v>48.65426975179719</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022928</v>
@@ -26808,10 +26808,10 @@
         <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>917.218437403405</v>
+        <v>917.2184374034049</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208615</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.98040685855565</v>
+        <v>44.98040685855487</v>
       </c>
       <c r="E3" t="n">
-        <v>1041.1224308415</v>
+        <v>1041.122430841501</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>85.81698200111214</v>
+      </c>
+      <c r="J4" t="n">
+        <v>97.11802380520953</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>85.81698200111225</v>
-      </c>
-      <c r="J4" t="n">
-        <v>97.11802380520965</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>337.4716642661366</v>
       </c>
       <c r="I8" t="n">
-        <v>202.9352112403308</v>
+        <v>202.9352112403309</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>137.5825701128225</v>
+        <v>137.5825701128227</v>
       </c>
       <c r="S8" t="n">
-        <v>204.5629472868721</v>
+        <v>204.5629472868722</v>
       </c>
       <c r="T8" t="n">
-        <v>222.2396322140268</v>
+        <v>222.2396322140269</v>
       </c>
       <c r="U8" t="n">
         <v>251.3300053034942</v>
@@ -27950,7 +27950,7 @@
         <v>111.2247206327846</v>
       </c>
       <c r="I9" t="n">
-        <v>85.79346287451305</v>
+        <v>85.79346287451311</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.66019412805396</v>
+        <v>93.66019412805406</v>
       </c>
       <c r="S9" t="n">
-        <v>169.73929532649</v>
+        <v>169.7392953264901</v>
       </c>
       <c r="T9" t="n">
         <v>199.7429053561244</v>
@@ -28032,10 +28032,10 @@
         <v>152.8119778069477</v>
       </c>
       <c r="J10" t="n">
-        <v>87.1561595288083</v>
+        <v>87.1561595288084</v>
       </c>
       <c r="K10" t="n">
-        <v>12.07602350739141</v>
+        <v>12.07602350739158</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.8152485191729</v>
+        <v>78.81524851917301</v>
       </c>
       <c r="R10" t="n">
         <v>173.3484074723762</v>
       </c>
       <c r="S10" t="n">
-        <v>222.4875777891985</v>
+        <v>222.4875777891986</v>
       </c>
       <c r="T10" t="n">
         <v>227.5707122678988</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880414</v>
       </c>
     </row>
     <row r="17">
@@ -28770,10 +28770,10 @@
         <v>73.89625281739667</v>
       </c>
       <c r="S19" t="n">
+        <v>11.48104483559092</v>
+      </c>
+      <c r="T19" t="n">
         <v>73.89625281739667</v>
-      </c>
-      <c r="T19" t="n">
-        <v>11.48104483559106</v>
       </c>
       <c r="U19" t="n">
         <v>73.89625281739667</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T22" t="n">
-        <v>11.48104483559106</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89625281739667</v>
+        <v>11.48104483559047</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D25" t="n">
-        <v>11.48104483559138</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89625281739667</v>
+        <v>11.48104483559035</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185921</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185935</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859227</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="44">
@@ -31300,7 +31300,7 @@
         <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>2.48846056906043</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
         <v>2.123843523123063</v>
@@ -31309,7 +31309,7 @@
         <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0.9277519194678707</v>
       </c>
       <c r="S5" t="n">
         <v>0.3365553796171231</v>
@@ -31434,10 +31434,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0.006624998659945164</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0.05890226081296705</v>
       </c>
       <c r="I7" t="n">
         <v>0.1992317778827147</v>
@@ -31449,7 +31449,7 @@
         <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0.9849566189522113</v>
       </c>
       <c r="M7" t="n">
         <v>1.038498653576677</v>
@@ -31467,13 +31467,13 @@
         <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0.2978840306553525</v>
       </c>
       <c r="S7" t="n">
         <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0.02830681245612933</v>
       </c>
       <c r="U7" t="n">
         <v>0.0003613635632697367</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1955950542785846</v>
+        <v>0.1955950542785815</v>
       </c>
       <c r="H8" t="n">
-        <v>2.003137849630555</v>
+        <v>2.003137849630524</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330075142</v>
+        <v>7.540678330075022</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60088573807704</v>
+        <v>16.60088573807678</v>
       </c>
       <c r="K8" t="n">
-        <v>24.88042438568953</v>
+        <v>24.88042438568914</v>
       </c>
       <c r="L8" t="n">
-        <v>30.86636652806778</v>
+        <v>30.86636652806728</v>
       </c>
       <c r="M8" t="n">
-        <v>34.34478007459455</v>
+        <v>34.34478007459401</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256358</v>
+        <v>34.90051452256303</v>
       </c>
       <c r="O8" t="n">
-        <v>32.95556620158091</v>
+        <v>32.95556620158038</v>
       </c>
       <c r="P8" t="n">
-        <v>28.12681329907834</v>
+        <v>28.1268132990779</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772652</v>
+        <v>21.12206541772619</v>
       </c>
       <c r="R8" t="n">
-        <v>12.28654782832715</v>
+        <v>12.28654782832696</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373252</v>
+        <v>4.457122299373181</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8562173501045047</v>
+        <v>0.8562173501044911</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01564760434228677</v>
+        <v>0.01564760434228652</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1046525802208485</v>
+        <v>0.1046525802208468</v>
       </c>
       <c r="H9" t="n">
-        <v>1.010723603711879</v>
+        <v>1.010723603711863</v>
       </c>
       <c r="I9" t="n">
-        <v>3.60316997690202</v>
+        <v>3.603169976901963</v>
       </c>
       <c r="J9" t="n">
-        <v>9.88737381814604</v>
+        <v>9.887373818145882</v>
       </c>
       <c r="K9" t="n">
-        <v>16.89909669294289</v>
+        <v>16.89909669294262</v>
       </c>
       <c r="L9" t="n">
-        <v>22.72292098172414</v>
+        <v>22.72292098172378</v>
       </c>
       <c r="M9" t="n">
-        <v>26.51657701472989</v>
+        <v>26.51657701472947</v>
       </c>
       <c r="N9" t="n">
-        <v>27.21839190577234</v>
+        <v>27.21839190577191</v>
       </c>
       <c r="O9" t="n">
-        <v>24.89951104929985</v>
+        <v>24.89951104929946</v>
       </c>
       <c r="P9" t="n">
-        <v>19.98405279673377</v>
+        <v>19.98405279673346</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.35881006468234</v>
+        <v>13.35881006468213</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024589173</v>
+        <v>6.497640024589069</v>
       </c>
       <c r="S9" t="n">
-        <v>1.943875777347776</v>
+        <v>1.943875777347745</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4218233386971917</v>
+        <v>0.421823338697185</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006885038172424244</v>
+        <v>0.006885038172424134</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08773720774914387</v>
+        <v>0.08773720774914247</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7800635379878433</v>
+        <v>0.7800635379878309</v>
       </c>
       <c r="I10" t="n">
-        <v>2.638497120310618</v>
+        <v>2.638497120310576</v>
       </c>
       <c r="J10" t="n">
-        <v>6.203020587864471</v>
+        <v>6.203020587864373</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19346831849144</v>
+        <v>10.19346831849128</v>
       </c>
       <c r="L10" t="n">
-        <v>13.04412995935908</v>
+        <v>13.04412995935887</v>
       </c>
       <c r="M10" t="n">
-        <v>13.75320612016807</v>
+        <v>13.75320612016785</v>
       </c>
       <c r="N10" t="n">
-        <v>13.42618561855763</v>
+        <v>13.42618561855742</v>
       </c>
       <c r="O10" t="n">
-        <v>12.40125550985172</v>
+        <v>12.40125550985152</v>
       </c>
       <c r="P10" t="n">
-        <v>10.61141647176918</v>
+        <v>10.61141647176901</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.346794732521493</v>
+        <v>7.346794732521376</v>
       </c>
       <c r="R10" t="n">
-        <v>3.944983904793323</v>
+        <v>3.94498390479326</v>
       </c>
       <c r="S10" t="n">
-        <v>1.529020247773716</v>
+        <v>1.529020247773691</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3748771603827055</v>
+        <v>0.3748771603826996</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004785665877226035</v>
+        <v>0.004785665877225958</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026443</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33023,10 +33023,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33734,10 +33734,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33980,7 +33980,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35583,7 +35583,7 @@
         <v>329.2742464214439</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8781873439145</v>
+        <v>261.8781873439146</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3153547366978</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49953281187038</v>
+        <v>72.49953281187035</v>
       </c>
       <c r="K16" t="n">
         <v>232.9687757431237</v>
@@ -35811,7 +35811,7 @@
         <v>346.6784883690023</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5544955922879</v>
+        <v>374.554495592288</v>
       </c>
       <c r="N16" t="n">
         <v>371.7780623663442</v>
@@ -35820,7 +35820,7 @@
         <v>329.2742464214439</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8781873439145</v>
+        <v>261.8781873439146</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3153547366978</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597762</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36124,7 +36124,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923321</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36367,10 +36367,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>892.1024106092341</v>
       </c>
       <c r="O23" t="n">
-        <v>847.8535760845422</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597708</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>315.3055921237172</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>586.8236523290575</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,10 +36762,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412321</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>570.6446730712199</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36847,13 +36847,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>122.1333842488631</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37081,16 +37081,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>520.9338729746956</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>425.2462182282758</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637028</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37315,19 +37315,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>895.850364009541</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>418.5312714465555</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37476,13 +37476,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412321</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37558,13 +37558,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>464.2791042831142</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>79.01631456768956</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,16 +37786,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>939.1244131184368</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>418.1651022448367</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165972</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887904</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>614.411970709814</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38026,16 +38026,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>889.1354172278211</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
